--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_inverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>76.33465687419441</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6029704868017386</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7633465687419442</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7582424682140484</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.8617808112527</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6826384242624044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.718617808112527</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7098501509903863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.95867611311516</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4597964386145274</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8295867611311516</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.828997210289549</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.71604425643821</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3985286865456146</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8471604425643819</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8451760617769514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.707895397019</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.240577127411961</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6270789539701901</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5740390409173552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79.49705447278956</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5825295652883749</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7949705447278956</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7835684181748473</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.28896443740862</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.008228482678533</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6428896443740862</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5942162285181819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>74.72088858900163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6098925784230232</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7472088858900163</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7454502493131623</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.78960890665144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.772836098074913</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6878960890665144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6607757119445072</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.52360314535592</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8743420707682767</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6852360314535593</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6629892098798524</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59.7184231697506</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.239890626569589</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.597184231697506</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5879014708177118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.09674824176679</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8611864797770977</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.640967482417668</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6256226242854842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.8066938295314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1722362924211969</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9380669382953141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9378084025467258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.25747627574633</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4436808757367544</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8425747627574633</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8372518561251056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.80859696018132</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1596773797905674</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9380859696018131</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9365498615258862</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.33914076534687</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6739341075443049</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7533914076534688</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7392292643546503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.72411526051263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.020848918395738</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5772411526051263</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5361629048590043</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.16032145606796</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.28978712366273</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5316032145606796</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4922231091987911</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70.34005484476509</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7935648031532765</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7034005484476509</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6862094433511994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>69.33701848631908</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8039312483121952</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6933701848631909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6867450568782962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.03545013365167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.06972222973903</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5803545013365168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5513001750546034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.87044005570982</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8478446746865907</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6287044005570983</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6083926296479164</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60.89369285201428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8877491274227699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6089369285201429</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5911772381605656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.52098201541536</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.266415884842475</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5552098201541535</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5097601996154048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.7778873519667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8294559190670648</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6377788735196671</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.629017637453497</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.46544520281317</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8326267667114735</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6546544520281318</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6479482224651478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52.76784401249146</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.174399695452303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5276784401249145</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5065086680157853</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>58.87810448187268</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9407475764552752</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5887810448187267</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5602478477896852</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.46441578214345</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7793910982708137</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6646441578214344</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6547179450573156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.25514926599712</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.627840487464952</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7525514926599711</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7419090157785716</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.32511526916323</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4498617297659318</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8332511526916322</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8309254529645201</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.58773576472691</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9076124855601747</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6358773576472692</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6155497030860203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_inverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="inverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="inverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="inverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="inverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="inverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="inverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.92399588231731</v>
+        <v>95.33923303834808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.152541011614206</v>
+        <v>0.1105129305302398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9392399588231732</v>
+        <v>0.9533923303834808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9387313473986245</v>
+        <v>0.9527259821105718</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.80336335089405</v>
+        <v>93.15651519476812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3641932575720375</v>
+        <v>0.2725169186043782</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8880336335089403</v>
+        <v>0.9315651519476813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8750840086548812</v>
+        <v>0.9242514501295002</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.92399588231731</v>
+        <v>96.90265486725664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1917796697569429</v>
+        <v>0.1184818407669809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9392399588231732</v>
+        <v>0.9690265486725664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9347611573461512</v>
+        <v>0.9685555635232508</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.16224188790559</v>
+        <v>91.71091445427729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1309565573507522</v>
+        <v>0.2140111072338186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.951622418879056</v>
+        <v>0.9171091445427729</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9513717481113794</v>
+        <v>0.9081313808347578</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.89343333419839</v>
+        <v>85.25419770067215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.498871966002965</v>
+        <v>0.358718815491496</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8089343333419838</v>
+        <v>0.8525419770067215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8003223145684899</v>
+        <v>0.8486661978917807</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.62293791468785</v>
+        <v>90.64931357537695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2249772807699628</v>
+        <v>0.2540755479984606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9162293791468784</v>
+        <v>0.9064931357537696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9028227724154387</v>
+        <v>0.8970900564589359</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.85545722713864</v>
+        <v>91.94690265486726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2255719674741462</v>
+        <v>0.1977010288110856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9085545722713864</v>
+        <v>0.9194690265486726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9067104393463655</v>
+        <v>0.9098692822800907</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.53808423948303</v>
+        <v>93.53999602072682</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1812758714271088</v>
+        <v>0.1672860222369309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9253808423948303</v>
+        <v>0.9353999602072683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.922996768453728</v>
+        <v>0.9348484155272224</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.03834808259587</v>
+        <v>92.35988200589971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181850916868522</v>
+        <v>0.2190453675730775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9303834808259588</v>
+        <v>0.9235988200589971</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9304660684684869</v>
+        <v>0.919723037051557</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.02984454882828</v>
+        <v>89.79351032448378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2815659041424927</v>
+        <v>0.2955488071545309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9002984454882828</v>
+        <v>0.8979351032448377</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8834130616375697</v>
+        <v>0.884886171558415</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.85614927464771</v>
+        <v>82.71386430678466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6849615000973548</v>
+        <v>0.6970924322067125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8085614927464772</v>
+        <v>0.8271386430678467</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7938714796150714</v>
+        <v>0.815246894645161</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.77667626882585</v>
+        <v>86.4306784660767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6055190667742864</v>
+        <v>0.5269538188634517</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8377667626882586</v>
+        <v>0.8643067846607669</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8234411182777841</v>
+        <v>0.8476909433101391</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.05604719764013</v>
+        <v>99.26253687315634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03100984956488446</v>
+        <v>0.03845011292954344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9905604719764012</v>
+        <v>0.9926253687315635</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9905548595419027</v>
+        <v>0.9926365880749408</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.35103244837758</v>
+        <v>99.64601769911505</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0201886241475601</v>
+        <v>0.01334382912664296</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9935103244837759</v>
+        <v>0.9964601769911505</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9935128897067577</v>
+        <v>0.9964712383928823</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.66666666666666</v>
+        <v>94.66076696165192</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08338311953246443</v>
+        <v>0.1193362173396755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.9466076696165192</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9657734433130175</v>
+        <v>0.9403618831888811</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.36655161376828</v>
+        <v>92.22446560956409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2572431042063791</v>
+        <v>0.2402049864578016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9136655161376829</v>
+        <v>0.9222446560956411</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9075888984570432</v>
+        <v>0.9160770056652059</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.82261957283367</v>
+        <v>88.43657817109144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.412232487911145</v>
+        <v>0.3026695815332156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8482261957283367</v>
+        <v>0.8843657817109145</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84070573256815</v>
+        <v>0.8804056210825044</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.24739833389563</v>
+        <v>82.75599269889878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.59928573211461</v>
+        <v>0.3969202560227131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7924739833389562</v>
+        <v>0.8275599269889877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7779039069175477</v>
+        <v>0.8235612457261805</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.32534883519753</v>
+        <v>92.62536873156343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2571305551643794</v>
+        <v>0.1938064381907073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9032534883519754</v>
+        <v>0.9262536873156343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9018240344076792</v>
+        <v>0.9268546316358005</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.80825958702064</v>
+        <v>88.49661329250253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1365736190831133</v>
+        <v>0.284476743110766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9480825958702065</v>
+        <v>0.8849661329250254</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9477622693779522</v>
+        <v>0.8840707524914929</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.05673059455532</v>
+        <v>73.50539364527376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4800621576219177</v>
+        <v>0.7481280654047926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7805673059455531</v>
+        <v>0.7350539364527375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7668013854779454</v>
+        <v>0.7183943158021588</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.15512244915614</v>
+        <v>84.22520956063633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1991751983917008</v>
+        <v>0.4293503780538838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9215512244915613</v>
+        <v>0.8422520956063634</v>
       </c>
       <c r="E7" t="n">
-        <v>0.918663960110284</v>
+        <v>0.8325172077187553</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.87697125407659</v>
+        <v>87.34738189776729</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2938228174141841</v>
+        <v>0.2986807604708398</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8787697125407659</v>
+        <v>0.8734738189776727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8773748753961405</v>
+        <v>0.8614373657404413</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.84556094775907</v>
+        <v>89.29220841010735</v>
       </c>
       <c r="C9" t="n">
-        <v>0.315957224733817</v>
+        <v>0.2530144376940977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8684556094775907</v>
+        <v>0.8929220841010735</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8664455601224528</v>
+        <v>0.891565868382229</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.249336066921</v>
+        <v>86.10827083279267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4043565834057518</v>
+        <v>0.311483941815095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8324933606692099</v>
+        <v>0.8610827083279267</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8320481993619611</v>
+        <v>0.8605423838212711</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.83827714772619</v>
+        <v>84.80877862265245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4066595648201958</v>
+        <v>0.3507946939585963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8483827714772619</v>
+        <v>0.8480877862265246</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8380403641535628</v>
+        <v>0.8417515896126039</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.3924774435765</v>
+        <v>66.98751719305531</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9133579807046772</v>
+        <v>1.22287299335876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.703924774435765</v>
+        <v>0.669875171930553</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6871093986957424</v>
+        <v>0.6520001662922121</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65746243479614</v>
+        <v>83.86482582029257</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4960835496429354</v>
+        <v>0.460981427905305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8265746243479615</v>
+        <v>0.8386482582029255</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8193182972472458</v>
+        <v>0.8358406590939685</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.96460176991151</v>
+        <v>96.66666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05970338705730379</v>
+        <v>0.08101584860442017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9796460176991151</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9795200018641612</v>
+        <v>0.9666605225682574</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.87610619469027</v>
+        <v>95.48672566371681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05466745097659592</v>
+        <v>0.1076077887984866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9787610619469026</v>
+        <v>0.9548672566371682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9788262322887095</v>
+        <v>0.9550856878117667</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.22713864306785</v>
+        <v>95.42772861356931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09711997093452661</v>
+        <v>0.1181588544517581</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9722713864306785</v>
+        <v>0.9542772861356932</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9719812375676524</v>
+        <v>0.9528225380757522</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.22289408501227</v>
+        <v>86.40235065470578</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3417458853317902</v>
+        <v>0.3706641472915626</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8722289408501227</v>
+        <v>0.8640235065470577</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8669550303704791</v>
+        <v>0.8589007037236931</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.57310184344155</v>
+        <v>81.66091402174759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4841523649636656</v>
+        <v>0.4960792570219685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8057310184344155</v>
+        <v>0.8166091402174759</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8038947155148067</v>
+        <v>0.7996143486389405</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.33585930674141</v>
+        <v>75.03343454528154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6302811516662283</v>
+        <v>0.8460991129511968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.753358593067414</v>
+        <v>0.7503343454528153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7436714026133725</v>
+        <v>0.7217786451903698</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.61388939350687</v>
+        <v>84.60401906590887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4016564346238738</v>
+        <v>0.3883184951419631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8561388939350685</v>
+        <v>0.8460401906590886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8545441176016666</v>
+        <v>0.8458945938361841</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.45445029801296</v>
+        <v>79.36348930354069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1502921888954006</v>
+        <v>0.5596851253261168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9445445029801295</v>
+        <v>0.7936348930354069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9435636039082936</v>
+        <v>0.790960604970497</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.69403714565006</v>
+        <v>69.46288462702964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7860340716938177</v>
+        <v>0.8159477694076486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7069403714565005</v>
+        <v>0.6946288462702965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6831218580349045</v>
+        <v>0.6792968417805869</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.58092198029394</v>
+        <v>81.3483680654677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4197713725889723</v>
+        <v>0.5578406364967425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8458092198029394</v>
+        <v>0.8134836806546769</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8305184217628743</v>
+        <v>0.8012534960865955</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.86236040104153</v>
+        <v>79.10319293419494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5570586315705441</v>
+        <v>0.5252643203440432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7886236040104153</v>
+        <v>0.7910319293419493</v>
       </c>
       <c r="E8" t="n">
-        <v>0.766262974909492</v>
+        <v>0.7777573995035563</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.48890561337035</v>
+        <v>82.29093677280946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6080498158776512</v>
+        <v>0.4801136223521705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7748890561337036</v>
+        <v>0.8229093677280945</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7737355966965118</v>
+        <v>0.8134886514592494</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.2496647894878</v>
+        <v>84.6188980873537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4776192321442068</v>
+        <v>0.3678593814062575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.812496647894878</v>
+        <v>0.846188980873537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.809815732033955</v>
+        <v>0.8465711095452437</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.17697384925475</v>
+        <v>82.16186991236948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5571712470904459</v>
+        <v>0.4404761719022645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7817697384925475</v>
+        <v>0.8216186991236949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7683906311088393</v>
+        <v>0.8131010749702851</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.44054014308082</v>
+        <v>71.71575878684072</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9688446982375656</v>
+        <v>0.8420402879671505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6644054014308083</v>
+        <v>0.7171575878684072</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6649456583497508</v>
+        <v>0.6956626048166011</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.15245806624625</v>
+        <v>80.83114905838286</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7408708256979784</v>
+        <v>0.4963854705604415</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7415245806624624</v>
+        <v>0.8083114905838287</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7346118697511227</v>
+        <v>0.8037027463710462</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.15634218289085</v>
+        <v>92.74336283185841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1950084478577992</v>
+        <v>0.1949257281123816</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9315634218289086</v>
+        <v>0.9274336283185841</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9259878202241157</v>
+        <v>0.924814376349236</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.01821815067605</v>
+        <v>91.65658872481596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1113019618090296</v>
+        <v>0.2094055242542405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9601821815067604</v>
+        <v>0.9165658872481595</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9599242392789469</v>
+        <v>0.916936970957144</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.69321533923303</v>
+        <v>94.15963805915275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.12228922661542</v>
+        <v>0.1820497986163597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9569321533923304</v>
+        <v>0.9415963805915275</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9549382894138176</v>
+        <v>0.9403834465160514</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.16606256686191</v>
+        <v>82.05030031978363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4806934447555066</v>
+        <v>0.493499380124063</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8216606256686189</v>
+        <v>0.8205030031978361</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8145284620801644</v>
+        <v>0.8114144607327723</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.33465687419441</v>
+        <v>78.53476241143954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6029704868017386</v>
+        <v>0.6338243160396815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7633465687419442</v>
+        <v>0.7853476241143955</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7582424682140484</v>
+        <v>0.7822392535171833</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.8617808112527</v>
+        <v>77.80767999723182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6826384242624044</v>
+        <v>0.5556375694150726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.718617808112527</v>
+        <v>0.7780767999723182</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7098501509903863</v>
+        <v>0.7735465573916308</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.95867611311516</v>
+        <v>83.16914506180849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4597964386145274</v>
+        <v>0.4543219649194118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8295867611311516</v>
+        <v>0.8316914506180849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.828997210289549</v>
+        <v>0.8294466962762993</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.71604425643821</v>
+        <v>74.11681761952958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3985286865456146</v>
+        <v>0.9142979514018711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8471604425643819</v>
+        <v>0.7411681761952958</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8451760617769514</v>
+        <v>0.7199864036338564</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.707895397019</v>
+        <v>65.61622505384994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.240577127411961</v>
+        <v>0.9853310209233314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6270789539701901</v>
+        <v>0.6561622505384995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5740390409173552</v>
+        <v>0.6325740779947029</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.49705447278956</v>
+        <v>78.7823424078063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5825295652883749</v>
+        <v>0.5846726831669609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7949705447278956</v>
+        <v>0.7878234240780631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7835684181748473</v>
+        <v>0.7805300595095976</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.28896443740862</v>
+        <v>70.71341447590376</v>
       </c>
       <c r="C8" t="n">
-        <v>1.008228482678533</v>
+        <v>0.7808262404054404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6428896443740862</v>
+        <v>0.7071341447590378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5942162285181819</v>
+        <v>0.6920901771201459</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.72088858900163</v>
+        <v>77.14815872109621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6098925784230232</v>
+        <v>0.601248612984394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7472088858900163</v>
+        <v>0.7714815872109619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7454502493131623</v>
+        <v>0.7561340800295806</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.78960890665144</v>
+        <v>75.0251299751728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.772836098074913</v>
+        <v>0.6258255703995625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6878960890665144</v>
+        <v>0.7502512997517279</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6607757119445072</v>
+        <v>0.7446505485849085</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.52360314535592</v>
+        <v>70.72457374198738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8743420707682767</v>
+        <v>0.8502692990165087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6852360314535593</v>
+        <v>0.7072457374198738</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6629892098798524</v>
+        <v>0.674525505883705</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.7184231697506</v>
+        <v>66.82800024221663</v>
       </c>
       <c r="C12" t="n">
-        <v>1.239890626569589</v>
+        <v>0.9268819647220272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.597184231697506</v>
+        <v>0.6682800024221663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5879014708177118</v>
+        <v>0.6734117013337474</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.09674824176679</v>
+        <v>69.16893744755578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8611864797770977</v>
+        <v>0.8432598896945516</v>
       </c>
       <c r="D13" t="n">
-        <v>0.640967482417668</v>
+        <v>0.6916893744755577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6256226242854842</v>
+        <v>0.6844640649450209</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.8066938295314</v>
+        <v>91.15857403610758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1722362924211969</v>
+        <v>0.2326159559985778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9380669382953141</v>
+        <v>0.9115857403610758</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9378084025467258</v>
+        <v>0.9118612023361432</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.25747627574633</v>
+        <v>81.30606666147631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4436808757367544</v>
+        <v>0.546723412344727</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8425747627574633</v>
+        <v>0.8130606666147632</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8372518561251056</v>
+        <v>0.7961105391911307</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.80859696018132</v>
+        <v>94.10323618716424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1596773797905674</v>
+        <v>0.1743688671689597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9380859696018131</v>
+        <v>0.9410323618716425</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9365498615258862</v>
+        <v>0.940408297247483</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.33914076534687</v>
+        <v>76.94687093602307</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6739341075443049</v>
+        <v>0.6473403545734052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7533914076534688</v>
+        <v>0.7694687093602309</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7392292643546503</v>
+        <v>0.7594652776663423</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.72411526051263</v>
+        <v>73.30305625481189</v>
       </c>
       <c r="C2" t="n">
-        <v>1.020848918395738</v>
+        <v>0.7017490434149901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5772411526051263</v>
+        <v>0.7330305625481189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5361629048590043</v>
+        <v>0.7143630051547295</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.16032145606796</v>
+        <v>74.81647765119075</v>
       </c>
       <c r="C3" t="n">
-        <v>1.28978712366273</v>
+        <v>0.5907100301701576</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5316032145606796</v>
+        <v>0.7481647765119075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4922231091987911</v>
+        <v>0.7440527800908134</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.34005484476509</v>
+        <v>81.01367658889782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7935648031532765</v>
+        <v>0.5278349708765745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7034005484476509</v>
+        <v>0.8101367658889783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6862094433511994</v>
+        <v>0.811535513357598</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.33701848631908</v>
+        <v>74.16984575991141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8039312483121952</v>
+        <v>0.7496858643988769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6933701848631909</v>
+        <v>0.7416984575991142</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6867450568782962</v>
+        <v>0.7337838668864959</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.03545013365167</v>
+        <v>67.81390842481336</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06972222973903</v>
+        <v>0.7997004096085827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5803545013365168</v>
+        <v>0.6781390842481336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5513001750546034</v>
+        <v>0.6722616736356487</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.87044005570982</v>
+        <v>73.862836183704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8478446746865907</v>
+        <v>0.6353869990756114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6287044005570983</v>
+        <v>0.7386283618370401</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6083926296479164</v>
+        <v>0.7347504997335681</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.89369285201428</v>
+        <v>71.56212423982906</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8877491274227699</v>
+        <v>0.794657949746276</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6089369285201429</v>
+        <v>0.7156212423982906</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5911772381605656</v>
+        <v>0.6971332187963215</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.52098201541536</v>
+        <v>70.12084879626987</v>
       </c>
       <c r="C9" t="n">
-        <v>1.266415884842475</v>
+        <v>0.7161192984630664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5552098201541535</v>
+        <v>0.7012084879626986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5097601996154048</v>
+        <v>0.6887099698730756</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.7778873519667</v>
+        <v>67.71728129136065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8294559190670648</v>
+        <v>1.036680324499806</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6377788735196671</v>
+        <v>0.6771728129136065</v>
       </c>
       <c r="E10" t="n">
-        <v>0.629017637453497</v>
+        <v>0.6462000339415046</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.46544520281317</v>
+        <v>69.04661805032916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8326267667114735</v>
+        <v>0.7850991579898012</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6546544520281318</v>
+        <v>0.6904661805032916</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6479482224651478</v>
+        <v>0.6821827303150101</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.76784401249146</v>
+        <v>62.55936470038669</v>
       </c>
       <c r="C12" t="n">
-        <v>1.174399695452303</v>
+        <v>0.934199291219314</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5276784401249145</v>
+        <v>0.6255936470038668</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5065086680157853</v>
+        <v>0.6192309336750046</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.87810448187268</v>
+        <v>68.73061185650394</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9407475764552752</v>
+        <v>0.8090209312736988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5887810448187267</v>
+        <v>0.6873061185650394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5602478477896852</v>
+        <v>0.6796204163827509</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.46441578214345</v>
+        <v>91.09231048711494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7793910982708137</v>
+        <v>0.2429281888684879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6646441578214344</v>
+        <v>0.9109231048711495</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6547179450573156</v>
+        <v>0.9103838982684465</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.25514926599712</v>
+        <v>85.73828493326066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.627840487464952</v>
+        <v>0.3882511808425382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7525514926599711</v>
+        <v>0.8573828493326067</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7419090157785716</v>
+        <v>0.8555196472397851</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.32511526916323</v>
+        <v>94.45669945241741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4498617297659318</v>
+        <v>0.1791940936908455</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8332511526916322</v>
+        <v>0.9445669945241741</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8309254529645201</v>
+        <v>0.9445214211841705</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.58773576472691</v>
+        <v>75.0669296447201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9076124855601747</v>
+        <v>0.6594145156092419</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6358773576472692</v>
+        <v>0.7506692964472012</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6155497030860203</v>
+        <v>0.7422833072356614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.70146800577859</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.76261519814531</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.697014680057786</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6833057028728854</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.5553335236464</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5894916074350476</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.765553335236464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7588138242328697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.31299578716079</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4413654223394891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8231299578716079</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8232207669216047</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.00611596986133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8601748918493589</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6700611596986134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6498832080491699</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.60822325452642</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.024102377829452</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6060822325452643</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5731358026764618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.15329717385099</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6990784802784522</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7115329717385098</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7034004719779099</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.23190512028651</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7132165793329477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6823190512028651</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.665841216341484</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>69.3224854886288</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7259004851182301</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6932248548862879</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6727603387826987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.73977283540515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7806038200855255</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6773977283540515</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6621097549502056</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.28949212363429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8601268254220485</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6528949212363429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6480631510680106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.17429216515713</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.034030466650923</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5817429216515714</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.560801753518257</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.57669183989481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8378336250782012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6557669183989481</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6485822444611168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.67112172250624</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4939045475174984</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8167112172250626</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8142552591325127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.82899506051091</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4580583247511337</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.818289950605109</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8114239325285549</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>86.72125191394389</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3760527686138327</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.867212519139439</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8651335563091005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.45956279898614</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7104370280298301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7145956279898616</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7027153989215229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.5041566103513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6971618107209603</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.705041566103513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7003533685355003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.37292710144551</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7472192525863648</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7037292710144551</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6934316342265616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.88751632799591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5262112235029538</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7688751632799591</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7645154122055391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.0411681761953</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.018952515721321</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5904116817619529</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5784709538269281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57.64236714850474</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9674702772249779</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5764236714850475</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5499102566329582</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.02068356992707</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9783877320587635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6102068356992707</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5919223845638054</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.97364164049863</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.325292147447666</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5297364164049861</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4714977145269851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>63.43368022214725</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8980699027578035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6343368022214725</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.618459244644761</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61.73055130234691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7897194584210714</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.617305513023469</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6108272575571921</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.4009809773441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9137747955818971</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6340098097734409</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6097094879249937</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.37886140883572</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.104238478094339</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5637886140883571</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5225373141500488</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.6932499416085</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8645004361867905</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5969324994160849</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5878151379480945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.48961496206714</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5708205518623193</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7948961496206715</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7944033844063138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.07294180745508</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5352900616785822</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8207294180745508</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8136019744269886</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.83544840353291</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3309315096586943</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.878354484035329</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8774953807984218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>66.83185264001708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8178693435669669</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6683185264001708</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6523300604250062</v>
       </c>
     </row>
   </sheetData>
